--- a/Dati/Infodati.xlsx
+++ b/Dati/Infodati.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="11205" tabRatio="847"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22965" windowHeight="11205" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Viss" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="584">
   <si>
     <t>LATVIJA</t>
   </si>
@@ -1168,42 +1168,12 @@
     <t>sievietes</t>
   </si>
   <si>
-    <t>Iedzīvotāju skaits</t>
-  </si>
-  <si>
     <t>Gads</t>
   </si>
   <si>
     <t>Vecuma grupa</t>
   </si>
   <si>
-    <t>Kritērijs</t>
-  </si>
-  <si>
-    <t>Kopā</t>
-  </si>
-  <si>
-    <t>Apakškritērijs</t>
-  </si>
-  <si>
-    <t>Vidējais vecums</t>
-  </si>
-  <si>
-    <t>Dzimstība</t>
-  </si>
-  <si>
-    <t>Mirstība</t>
-  </si>
-  <si>
-    <t>Darbaspējīgo %</t>
-  </si>
-  <si>
-    <t>Platība</t>
-  </si>
-  <si>
-    <t>Mērvienība</t>
-  </si>
-  <si>
     <t>Iedz.</t>
   </si>
   <si>
@@ -1255,28 +1225,556 @@
     <t>Bez konkursa</t>
   </si>
   <si>
-    <t>Cik iedzīvotāji dzīvo Daugavpilī?</t>
-  </si>
-  <si>
     <t>Pareizā atbilde</t>
   </si>
   <si>
     <t>Cik cilvēku piedzima Daugavpilī 2017. gadā?</t>
   </si>
   <si>
-    <t>Cik procentu iedzīvotāju Daugavpilī ir darbaspējīgā vecumā?</t>
-  </si>
-  <si>
-    <t>Cik liela ir Daugavpils teritorija kvadrātkilometros?</t>
-  </si>
-  <si>
     <t>Cik Daugavpilī 2018. gadā dzīvoja sieviešu vecumā no 15 līdz 24 gadiem.</t>
   </si>
   <si>
     <t>Par cik 2018. gadā bija sieviešu nekā vīriešu vecumā no 15 līdz 24 gadiem?</t>
   </si>
   <si>
-    <t xml:space="preserve">Par cik 2018. gadā bija sieviešu nekā vīriešu? </t>
+    <t>Iedzivotaju skaits</t>
+  </si>
+  <si>
+    <t>Kriterijs</t>
+  </si>
+  <si>
+    <t>Mervieniba</t>
+  </si>
+  <si>
+    <t>Videjais vecums</t>
+  </si>
+  <si>
+    <t>Dzimstiba</t>
+  </si>
+  <si>
+    <t>Mirstiba</t>
+  </si>
+  <si>
+    <t>Darbaspejigo %</t>
+  </si>
+  <si>
+    <t>Platiba</t>
+  </si>
+  <si>
+    <t>Apakskriterijs</t>
+  </si>
+  <si>
+    <t>Kopa</t>
+  </si>
+  <si>
+    <t>viriesi</t>
+  </si>
+  <si>
+    <t>Lidz darbspejas vecumam</t>
+  </si>
+  <si>
+    <t>Darbspejas vecuma</t>
+  </si>
+  <si>
+    <t>Virs darbspejas vecuma</t>
+  </si>
+  <si>
+    <t>Rigas regions</t>
+  </si>
+  <si>
+    <t>Pierigas regions</t>
+  </si>
+  <si>
+    <t>Vidzemes regions</t>
+  </si>
+  <si>
+    <t>Kurzemes regions</t>
+  </si>
+  <si>
+    <t>Zemgales regions</t>
+  </si>
+  <si>
+    <t>Latgales regions</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Jekabpils</t>
+  </si>
+  <si>
+    <t>Jurmala</t>
+  </si>
+  <si>
+    <t>Liepaja</t>
+  </si>
+  <si>
+    <t>Rezekne</t>
+  </si>
+  <si>
+    <t>Aknistes novads</t>
+  </si>
+  <si>
+    <t>Aluksnes novads</t>
+  </si>
+  <si>
+    <t>Adazu novads</t>
+  </si>
+  <si>
+    <t>Babites novads</t>
+  </si>
+  <si>
+    <t>Beverinas novads</t>
+  </si>
+  <si>
+    <t>Brocenu novads</t>
+  </si>
+  <si>
+    <t>Cesu novads</t>
+  </si>
+  <si>
+    <t>Erglu novads</t>
+  </si>
+  <si>
+    <t>Grobinas novads</t>
+  </si>
+  <si>
+    <t>Ikskiles novads</t>
+  </si>
+  <si>
+    <t>Ilukstes novads</t>
+  </si>
+  <si>
+    <t>Incukalna novads</t>
+  </si>
+  <si>
+    <t>Jekabpils novads</t>
+  </si>
+  <si>
+    <t>Karsavas novads</t>
+  </si>
+  <si>
+    <t>Kocenu novads</t>
+  </si>
+  <si>
+    <t>Kraslavas novads</t>
+  </si>
+  <si>
+    <t>Kuldigas novads</t>
+  </si>
+  <si>
+    <t>Keguma novads</t>
+  </si>
+  <si>
+    <t>Kekavas novads</t>
+  </si>
+  <si>
+    <t>Lielvardes novads</t>
+  </si>
+  <si>
+    <t>Limbazu novads</t>
+  </si>
+  <si>
+    <t>Ligatnes novads</t>
+  </si>
+  <si>
+    <t>Livanu novads</t>
+  </si>
+  <si>
+    <t>Lubanas novads</t>
+  </si>
+  <si>
+    <t>Malpils novads</t>
+  </si>
+  <si>
+    <t>Marupes novads</t>
+  </si>
+  <si>
+    <t>Mersraga novads</t>
+  </si>
+  <si>
+    <t>Nauksenu novads</t>
+  </si>
+  <si>
+    <t>Nicas novads</t>
+  </si>
+  <si>
+    <t>Pargaujas novads</t>
+  </si>
+  <si>
+    <t>Pavilostas novads</t>
+  </si>
+  <si>
+    <t>Plavinu novads</t>
+  </si>
+  <si>
+    <t>Preilu novads</t>
+  </si>
+  <si>
+    <t>Priekulu novads</t>
+  </si>
+  <si>
+    <t>Rezeknes novads</t>
+  </si>
+  <si>
+    <t>Riebinu novads</t>
+  </si>
+  <si>
+    <t>Ropazu novads</t>
+  </si>
+  <si>
+    <t>Rugaju novads</t>
+  </si>
+  <si>
+    <t>Rundales novads</t>
+  </si>
+  <si>
+    <t>Rujienas novads</t>
+  </si>
+  <si>
+    <t>Salacgrivas novads</t>
+  </si>
+  <si>
+    <t>Sejas novads</t>
+  </si>
+  <si>
+    <t>Skriveru novads</t>
+  </si>
+  <si>
+    <t>Stopinu novads</t>
+  </si>
+  <si>
+    <t>Strencu novads</t>
+  </si>
+  <si>
+    <t>Tervetes novads</t>
+  </si>
+  <si>
+    <t>Vainodes novads</t>
+  </si>
+  <si>
+    <t>Varaklanu novads</t>
+  </si>
+  <si>
+    <t>Varkavas novads</t>
+  </si>
+  <si>
+    <t>Viesites novads</t>
+  </si>
+  <si>
+    <t>Vilakas novads</t>
+  </si>
+  <si>
+    <t>Vilanu novads</t>
+  </si>
+  <si>
+    <t>Kādu platību aizņem Daugavpils?</t>
+  </si>
+  <si>
+    <t>Cik Daugavpilī dzīvoja vīriešu 2018. gadā?</t>
+  </si>
+  <si>
+    <t>Cik iedzīvotāji dzīvoja Daugavpilī 2018. gadā?</t>
+  </si>
+  <si>
+    <t>Kāda procentuāla daļa iedzīvotāju Daugavpilī ir darbaspējīgā vecumā?</t>
+  </si>
+  <si>
+    <t>Kurai upei par godu nosauca Daugavpili?</t>
+  </si>
+  <si>
+    <t>Lielupei</t>
+  </si>
+  <si>
+    <t>Ventai</t>
+  </si>
+  <si>
+    <t>Daugavai</t>
+  </si>
+  <si>
+    <t>Ko vietēji uzskata par vienu no pilsētas simboliem?</t>
+  </si>
+  <si>
+    <t>Cietoksni</t>
+  </si>
+  <si>
+    <t>Koka pili</t>
+  </si>
+  <si>
+    <t>Ūdenskritumu</t>
+  </si>
+  <si>
+    <t>Kurā Latvijas kultūrvēsturiskajā novadā atrodas Daugavpils?</t>
+  </si>
+  <si>
+    <t>Latgale</t>
+  </si>
+  <si>
+    <t>Kurzeme</t>
+  </si>
+  <si>
+    <t>Sēlija</t>
+  </si>
+  <si>
+    <t>Kura pilsēta Latvijā pēc kārtas ir Daugavpils pēc iedzīvotāju skaita?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par cik 2018. gadā bija vairāk sieviešu nekā vīriešu? </t>
+  </si>
+  <si>
+    <t> 232</t>
+  </si>
+  <si>
+    <t>Cik tālu no Rīgas atrodas Daugavpils klometros?</t>
+  </si>
+  <si>
+    <t>Dinaburga </t>
+  </si>
+  <si>
+    <t>Borisogļebova </t>
+  </si>
+  <si>
+    <t>Kurā no šiem vārdiem Daugavpils nav reiz tikusi saukta?</t>
+  </si>
+  <si>
+    <t>Dauuurga</t>
+  </si>
+  <si>
+    <t>Kuras divas pilsētas 19. gadsimtā vienoja dzelzceļa līnija, kas dodas caur Daugavpili?</t>
+  </si>
+  <si>
+    <t>Pēterburga-Varšava</t>
+  </si>
+  <si>
+    <t>Vīne-Varšava</t>
+  </si>
+  <si>
+    <t>Maskava-Pētrburga</t>
+  </si>
+  <si>
+    <t>zelta lilija</t>
+  </si>
+  <si>
+    <t>Kāds zieds ir attēlots Daugavpils ģerbonī?</t>
+  </si>
+  <si>
+    <t>vara orhideja</t>
+  </si>
+  <si>
+    <t>misiņa pīpene</t>
+  </si>
+  <si>
+    <t>Kā sauc Daugavpils mākslas skolu?</t>
+  </si>
+  <si>
+    <t>Saules skola</t>
+  </si>
+  <si>
+    <t>Upes skola</t>
+  </si>
+  <si>
+    <t>Dintara skola</t>
+  </si>
+  <si>
+    <t>Kāda ir Daugavpils karoga platuma attiecība?</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>Cik procentu Daugavpils iedzīvotāju 2018. gadā nebija darbaspējīgā vecumā?</t>
+  </si>
+  <si>
+    <t>Cik procenti no Latvijas iedzīvotājiem 2018. gadā dzīvoja Daugavpilī?</t>
+  </si>
+  <si>
+    <t>Kāds bija dzimstības koeficients Daugavpilī 2017. gadā?</t>
+  </si>
+  <si>
+    <t>Kāds bija dabiskais pieaugums Daugavpilī 2017. gadā?</t>
+  </si>
+  <si>
+    <t>Kādu daļu no Lavijas teritorijas aizņem Daugavpils procentos?</t>
+  </si>
+  <si>
+    <t>Kas dibināja Daugavpili?</t>
+  </si>
+  <si>
+    <t>Ernsts fon Ratcburgs</t>
+  </si>
+  <si>
+    <t>Stefans Batorijs</t>
+  </si>
+  <si>
+    <t>Sv. Boriss</t>
+  </si>
+  <si>
+    <t>Kāda stila ēkas ir sastopamas Daugavpils centrā?</t>
+  </si>
+  <si>
+    <t>Visuslaiku</t>
+  </si>
+  <si>
+    <t>Jūgendstila</t>
+  </si>
+  <si>
+    <t>Funkcionālisma</t>
+  </si>
+  <si>
+    <t>Cik iedzīvotāji dzīvoja Liepājā 2018. gadā?</t>
+  </si>
+  <si>
+    <t>Kā sauc ezeru, kas atrodas pie Liepājas?</t>
+  </si>
+  <si>
+    <t>Liepājas ezers</t>
+  </si>
+  <si>
+    <t>Brāzmezers</t>
+  </si>
+  <si>
+    <t>Grobiņas ezers</t>
+  </si>
+  <si>
+    <t>Kādu platību aizņem Liepāja kvadrātmetros?</t>
+  </si>
+  <si>
+    <t>Cik Liepājā piedzima mazuļi 2017. gadā?</t>
+  </si>
+  <si>
+    <t>Cik Liepājā dzīvoja zēni vecumā no 0 līdz 6 gadiem 2018. gadā?</t>
+  </si>
+  <si>
+    <t>Cik procenti no Liepājas idzīvotājiem bija virs darbaspējas vecuma 2018. gadā?</t>
+  </si>
+  <si>
+    <t>Cik Liepājā dzīvoja sievietes 2018. gadā?</t>
+  </si>
+  <si>
+    <t>Kā sauc Liepājas koncertzāli?</t>
+  </si>
+  <si>
+    <t>Lielais Dzintars</t>
+  </si>
+  <si>
+    <t>Apmērīgais stikliņš</t>
+  </si>
+  <si>
+    <t>Liepājas pilsētas koncerzāle</t>
+  </si>
+  <si>
+    <t>Cik garš ir liepājas tirdzniecības kanāls kilometros?</t>
+  </si>
+  <si>
+    <t>Cik procenti no Liepājas iedzīvotājiem 2018. gadā bija vecāki par 15 gadiem?</t>
+  </si>
+  <si>
+    <t>Kādai grupai par godu tika izveidota statuja "Spoku koks"?</t>
+  </si>
+  <si>
+    <t>Līvi</t>
+  </si>
+  <si>
+    <t>Liepājas brāļi</t>
+  </si>
+  <si>
+    <t>Pērkons</t>
+  </si>
+  <si>
+    <t>Par cik Liepājā bija mazāk vīriešu, nekā sieviešu 2018. gadā?</t>
+  </si>
+  <si>
+    <t>Pēc iedzīvotāju skaita, kurā vietā ir Liepāja Latvija?</t>
+  </si>
+  <si>
+    <t>Kādu titulu ir lirpājnieki devuši savai pilsētai?</t>
+  </si>
+  <si>
+    <t>Vēju pilsēta</t>
+  </si>
+  <si>
+    <t>Dzintara pilsēta</t>
+  </si>
+  <si>
+    <t>Smilšainā pilsēta</t>
+  </si>
+  <si>
+    <t>Ar kuru sabiedrisko transportu lepojas Liepājā?</t>
+  </si>
+  <si>
+    <t>Tramvajs</t>
+  </si>
+  <si>
+    <t>Autobuss</t>
+  </si>
+  <si>
+    <t>Trolejbuss</t>
+  </si>
+  <si>
+    <t>Ar kādiem satiksmes ceļiem var pārvietoties Liepājā?</t>
+  </si>
+  <si>
+    <t>Sauszemi, gaisu un jūru</t>
+  </si>
+  <si>
+    <t>sauszemi un gaisu</t>
+  </si>
+  <si>
+    <t>sauszemi un jūru</t>
+  </si>
+  <si>
+    <t>Kāds bija dzimstības koeficients Liepājā 2017. gadā?</t>
+  </si>
+  <si>
+    <t>Cik cilvēki 2018. gadā Liepājā bija virs 65 gadiem?</t>
+  </si>
+  <si>
+    <t>Kā sauca ciemu, kas kļuva par Liepāju?</t>
+  </si>
+  <si>
+    <t>Līvas ciems</t>
+  </si>
+  <si>
+    <t>Silšciems</t>
+  </si>
+  <si>
+    <t>Vēju ciems</t>
+  </si>
+  <si>
+    <t>Cik Liepājas iedzīvotāji 2018. gadā bija jaunāki par 15 gadiem?</t>
+  </si>
+  <si>
+    <t>Cik procenti no Latvijas mazuļiem piedzima Liepājā 2017. gadā?</t>
+  </si>
+  <si>
+    <t>Cik procenti no Latvijas iedzīvotājiem, kas ir jaunāki par 6 gadiem gadiem dzīvoja Liepājā 2018. gadā?</t>
+  </si>
+  <si>
+    <t>Kurā gadā Liepāja kļuva par pilsētu?</t>
+  </si>
+  <si>
+    <t> 1625</t>
+  </si>
+  <si>
+    <t>Kurā gadā Liepāja uz neilgu laiku bija Latvijas galvaspilsēta?</t>
+  </si>
+  <si>
+    <t>Kādu koku var redzēt Liepājas ģerbonī?</t>
+  </si>
+  <si>
+    <t>Liepa</t>
+  </si>
+  <si>
+    <t>Ozols</t>
+  </si>
+  <si>
+    <t>Bērzs</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,6 +1856,20 @@
       <family val="2"/>
       <charset val="186"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1404,7 +1916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1475,15 +1987,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1789,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P192"/>
+  <dimension ref="A1:S192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,12 +2358,15 @@
     <col min="14" max="14" width="19" style="28" customWidth="1"/>
     <col min="15" max="15" width="22.42578125" style="28" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" style="28" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="28"/>
+    <col min="17" max="17" width="21.28515625" style="28" customWidth="1"/>
+    <col min="18" max="18" width="23" style="28" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="28" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" s="34">
         <v>2018</v>
@@ -1865,59 +2414,59 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="42" t="s">
@@ -1941,77 +2490,77 @@
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>394</v>
-      </c>
       <c r="J4" s="35" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>380</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>380</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>380</v>
@@ -2021,17 +2570,17 @@
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="43" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="O5" s="43" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="P5" s="34"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>0</v>
       </c>
@@ -2078,10 +2627,13 @@
       <c r="P6" s="40">
         <v>64573</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="42"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="38">
@@ -2124,10 +2676,13 @@
       <c r="P7" s="40">
         <v>304</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="42"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="44"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="38">
@@ -2167,13 +2722,16 @@
       <c r="O8" s="40">
         <v>20.3</v>
       </c>
-      <c r="P8" s="40">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="27">
+        <v>10135</v>
+      </c>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="44"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="38">
@@ -2213,13 +2771,16 @@
       <c r="O9" s="40">
         <v>23.5</v>
       </c>
-      <c r="P9" s="40">
-        <v>10135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="27">
+        <v>15245</v>
+      </c>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="44"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="38">
@@ -2259,13 +2820,16 @@
       <c r="O10" s="40">
         <v>23.4</v>
       </c>
-      <c r="P10" s="40">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="27">
+        <v>13607</v>
+      </c>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="44"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="38">
@@ -2305,13 +2869,16 @@
       <c r="O11" s="40">
         <v>21.9</v>
       </c>
-      <c r="P11" s="40">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="27">
+        <v>10732</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="44"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="38">
@@ -2351,13 +2918,16 @@
       <c r="O12" s="40">
         <v>24.3</v>
       </c>
-      <c r="P12" s="40">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="27">
+        <v>14550</v>
+      </c>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="44"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="B13" s="33">
         <v>637971</v>
@@ -2397,11 +2967,14 @@
       <c r="O13" s="40">
         <v>22.7</v>
       </c>
-      <c r="P13" s="40">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="27">
+        <v>304</v>
+      </c>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="44"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>4</v>
       </c>
@@ -2443,11 +3016,14 @@
       <c r="O14" s="40">
         <v>24.8</v>
       </c>
-      <c r="P14" s="40">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="27">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="44"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>6</v>
       </c>
@@ -2489,13 +3065,16 @@
       <c r="O15" s="40">
         <v>20.9</v>
       </c>
-      <c r="P15" s="40">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="27">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="44"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>8</v>
+        <v>425</v>
       </c>
       <c r="B16" s="33">
         <v>22188</v>
@@ -2535,13 +3114,16 @@
       <c r="O16" s="40">
         <v>22</v>
       </c>
-      <c r="P16" s="40">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="44"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="B17" s="33">
         <v>49073</v>
@@ -2581,13 +3163,16 @@
       <c r="O17" s="40">
         <v>24.5</v>
       </c>
-      <c r="P17" s="40">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="44">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="44"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="B18" s="33">
         <v>69180</v>
@@ -2627,13 +3212,16 @@
       <c r="O18" s="40">
         <v>23.6</v>
       </c>
-      <c r="P18" s="40">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P18" s="44">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="44"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>14</v>
+        <v>428</v>
       </c>
       <c r="B19" s="33">
         <v>28156</v>
@@ -2673,11 +3261,14 @@
       <c r="O19" s="40">
         <v>23.2</v>
       </c>
-      <c r="P19" s="40">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="44">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="44"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>16</v>
       </c>
@@ -2719,11 +3310,14 @@
       <c r="O20" s="40">
         <v>23.2</v>
       </c>
-      <c r="P20" s="40">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="44">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="44"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>18</v>
       </c>
@@ -2765,11 +3359,14 @@
       <c r="O21" s="40">
         <v>24.7</v>
       </c>
-      <c r="P21" s="40">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="44">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="44"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>20</v>
       </c>
@@ -2813,11 +3410,14 @@
       <c r="O22" s="40">
         <v>26.1</v>
       </c>
-      <c r="P22" s="40">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="44">
+        <v>393</v>
+      </c>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="44"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>22</v>
       </c>
@@ -2861,11 +3461,14 @@
       <c r="O23" s="40">
         <v>23.5</v>
       </c>
-      <c r="P23" s="40">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="44">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="44"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>26</v>
       </c>
@@ -2909,13 +3512,16 @@
       <c r="O24" s="40">
         <v>25.5</v>
       </c>
-      <c r="P24" s="40">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="44">
+        <v>640</v>
+      </c>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="44"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="B25" s="33">
         <v>2557</v>
@@ -2957,11 +3563,14 @@
       <c r="O25" s="40">
         <v>22.7</v>
       </c>
-      <c r="P25" s="40">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P25" s="44">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="44"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>34</v>
       </c>
@@ -3005,11 +3614,14 @@
       <c r="O26" s="40">
         <v>24.5</v>
       </c>
-      <c r="P26" s="40">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="44">
+        <v>631</v>
+      </c>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="44"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>39</v>
       </c>
@@ -3053,13 +3665,16 @@
       <c r="O27" s="40">
         <v>23.5</v>
       </c>
-      <c r="P27" s="40">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="44">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="44"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="B28" s="33">
         <v>14472</v>
@@ -3101,11 +3716,14 @@
       <c r="O28" s="40">
         <v>23.9</v>
       </c>
-      <c r="P28" s="40">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P28" s="44">
+        <v>1698</v>
+      </c>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="44"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>45</v>
       </c>
@@ -3149,11 +3767,14 @@
       <c r="O29" s="40">
         <v>22.5</v>
       </c>
-      <c r="P29" s="40">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P29" s="44">
+        <v>745</v>
+      </c>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="44"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>47</v>
       </c>
@@ -3197,11 +3818,14 @@
       <c r="O30" s="40">
         <v>24.1</v>
       </c>
-      <c r="P30" s="40">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="44">
+        <v>545</v>
+      </c>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="44"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>50</v>
       </c>
@@ -3245,13 +3869,16 @@
       <c r="O31" s="40">
         <v>26</v>
       </c>
-      <c r="P31" s="40">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="44">
+        <v>517</v>
+      </c>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="44"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>54</v>
+        <v>431</v>
       </c>
       <c r="B32" s="33">
         <v>11184</v>
@@ -3293,13 +3920,16 @@
       <c r="O32" s="40">
         <v>13.6</v>
       </c>
-      <c r="P32" s="40">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="44">
+        <v>163</v>
+      </c>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="44"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>56</v>
+        <v>432</v>
       </c>
       <c r="B33" s="33">
         <v>10350</v>
@@ -3341,11 +3971,14 @@
       <c r="O33" s="40">
         <v>14.2</v>
       </c>
-      <c r="P33" s="40">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="44">
+        <v>243</v>
+      </c>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="44"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>58</v>
       </c>
@@ -3389,11 +4022,14 @@
       <c r="O34" s="40">
         <v>18.600000000000001</v>
       </c>
-      <c r="P34" s="40">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="44">
+        <v>179</v>
+      </c>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="44"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>62</v>
       </c>
@@ -3437,11 +4073,14 @@
       <c r="O35" s="40">
         <v>23.8</v>
       </c>
-      <c r="P35" s="40">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="44">
+        <v>186</v>
+      </c>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="44"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>64</v>
       </c>
@@ -3485,11 +4124,14 @@
       <c r="O36" s="40">
         <v>23.8</v>
       </c>
-      <c r="P36" s="40">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="44">
+        <v>1045</v>
+      </c>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="44"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
         <v>68</v>
       </c>
@@ -3533,13 +4175,16 @@
       <c r="O37" s="40">
         <v>21.5</v>
       </c>
-      <c r="P37" s="40">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="44">
+        <v>786</v>
+      </c>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="44"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>72</v>
+        <v>433</v>
       </c>
       <c r="B38" s="33">
         <v>3006</v>
@@ -3581,13 +4226,16 @@
       <c r="O38" s="40">
         <v>22.6</v>
       </c>
-      <c r="P38" s="40">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="44">
+        <v>301</v>
+      </c>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="44"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="B39" s="33">
         <v>5622</v>
@@ -3629,11 +4277,14 @@
       <c r="O39" s="40">
         <v>23.3</v>
       </c>
-      <c r="P39" s="40">
-        <v>15245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="44">
+        <v>496</v>
+      </c>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="44"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
         <v>78</v>
       </c>
@@ -3677,11 +4328,14 @@
       <c r="O40" s="40">
         <v>20.2</v>
       </c>
-      <c r="P40" s="40">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P40" s="44">
+        <v>702</v>
+      </c>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="44"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
         <v>80</v>
       </c>
@@ -3725,11 +4379,14 @@
       <c r="O41" s="40">
         <v>22.7</v>
       </c>
-      <c r="P41" s="40">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="44">
+        <v>81</v>
+      </c>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="44"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>82</v>
       </c>
@@ -3773,13 +4430,16 @@
       <c r="O42" s="40">
         <v>24.8</v>
       </c>
-      <c r="P42" s="40">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="44">
+        <v>190</v>
+      </c>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="44"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>86</v>
+        <v>435</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>87</v>
@@ -3821,11 +4481,14 @@
       <c r="O43" s="40">
         <v>23.6</v>
       </c>
-      <c r="P43" s="40">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="44">
+        <v>173</v>
+      </c>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="44"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
         <v>90</v>
       </c>
@@ -3869,11 +4532,14 @@
       <c r="O44" s="40">
         <v>22.9</v>
       </c>
-      <c r="P44" s="40">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P44" s="44">
+        <v>510</v>
+      </c>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="44"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
         <v>92</v>
       </c>
@@ -3917,11 +4583,14 @@
       <c r="O45" s="40">
         <v>24.4</v>
       </c>
-      <c r="P45" s="40">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="44">
+        <v>950</v>
+      </c>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="44"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
         <v>96</v>
       </c>
@@ -3965,11 +4634,14 @@
       <c r="O46" s="40">
         <v>25.4</v>
       </c>
-      <c r="P46" s="40">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="44">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="44"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
         <v>98</v>
       </c>
@@ -4013,11 +4685,14 @@
       <c r="O47" s="40">
         <v>21.8</v>
       </c>
-      <c r="P47" s="40">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P47" s="44">
+        <v>888</v>
+      </c>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="44"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
         <v>102</v>
       </c>
@@ -4061,11 +4736,14 @@
       <c r="O48" s="40">
         <v>24.1</v>
       </c>
-      <c r="P48" s="40">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P48" s="44">
+        <v>676</v>
+      </c>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="44"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>104</v>
       </c>
@@ -4109,11 +4787,14 @@
       <c r="O49" s="40">
         <v>25.5</v>
       </c>
-      <c r="P49" s="40">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="44">
+        <v>320</v>
+      </c>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="44"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
         <v>107</v>
       </c>
@@ -4157,13 +4838,16 @@
       <c r="O50" s="40">
         <v>27</v>
       </c>
-      <c r="P50" s="40">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P50" s="44">
+        <v>396</v>
+      </c>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="44"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
-        <v>109</v>
+        <v>436</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>110</v>
@@ -4205,11 +4889,14 @@
       <c r="O51" s="40">
         <v>28.6</v>
       </c>
-      <c r="P51" s="40">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P51" s="62">
+        <v>379</v>
+      </c>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="44"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
         <v>111</v>
       </c>
@@ -4253,13 +4940,16 @@
       <c r="O52" s="40">
         <v>14.5</v>
       </c>
-      <c r="P52" s="40">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P52" s="44">
+        <v>152</v>
+      </c>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="44"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
-        <v>113</v>
+        <v>437</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>114</v>
@@ -4301,11 +4991,14 @@
       <c r="O53" s="40">
         <v>23.6</v>
       </c>
-      <c r="P53" s="40">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P53" s="44">
+        <v>490</v>
+      </c>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="44"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>117</v>
       </c>
@@ -4349,11 +5042,14 @@
       <c r="O54" s="40">
         <v>22.1</v>
       </c>
-      <c r="P54" s="40">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P54" s="44">
+        <v>1872</v>
+      </c>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="44"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
         <v>121</v>
       </c>
@@ -4397,13 +5093,16 @@
       <c r="O55" s="40">
         <v>19.3</v>
       </c>
-      <c r="P55" s="40">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P55" s="44">
+        <v>312</v>
+      </c>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="44"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
-        <v>123</v>
+        <v>438</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>124</v>
@@ -4445,13 +5144,16 @@
       <c r="O56" s="40">
         <v>17.100000000000001</v>
       </c>
-      <c r="P56" s="40">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P56" s="44">
+        <v>131</v>
+      </c>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="44"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
-        <v>127</v>
+        <v>439</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>128</v>
@@ -4493,13 +5195,16 @@
       <c r="O57" s="40">
         <v>26.1</v>
       </c>
-      <c r="P57" s="40">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P57" s="44">
+        <v>647</v>
+      </c>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="44"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="42" t="s">
-        <v>132</v>
+        <v>440</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>133</v>
@@ -4544,8 +5249,11 @@
       <c r="P58" s="40">
         <v>301</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="42"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="44"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
         <v>136</v>
       </c>
@@ -4589,11 +5297,14 @@
       <c r="O59" s="40">
         <v>23.4</v>
       </c>
-      <c r="P59" s="40">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P59" s="44">
+        <v>684</v>
+      </c>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="44"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
         <v>140</v>
       </c>
@@ -4637,11 +5348,14 @@
       <c r="O60" s="40">
         <v>24.9</v>
       </c>
-      <c r="P60" s="40">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P60" s="44">
+        <v>251</v>
+      </c>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="44"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="42" t="s">
         <v>142</v>
       </c>
@@ -4685,11 +5399,14 @@
       <c r="O61" s="40">
         <v>21.4</v>
       </c>
-      <c r="P61" s="40">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P61" s="44">
+        <v>209</v>
+      </c>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="44"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="42" t="s">
         <v>144</v>
       </c>
@@ -4733,13 +5450,16 @@
       <c r="O62" s="40">
         <v>21.6</v>
       </c>
-      <c r="P62" s="40">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P62" s="44">
+        <v>684</v>
+      </c>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="44"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="42" t="s">
-        <v>146</v>
+        <v>441</v>
       </c>
       <c r="B63" s="29" t="s">
         <v>147</v>
@@ -4781,11 +5501,14 @@
       <c r="O63" s="40">
         <v>23.6</v>
       </c>
-      <c r="P63" s="40">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P63" s="44">
+        <v>905</v>
+      </c>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="44"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
         <v>148</v>
       </c>
@@ -4829,13 +5552,16 @@
       <c r="O64" s="40">
         <v>22.3</v>
       </c>
-      <c r="P64" s="40">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P64" s="44">
+        <v>649</v>
+      </c>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="44"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="s">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>153</v>
@@ -4877,13 +5603,16 @@
       <c r="O65" s="40">
         <v>23.9</v>
       </c>
-      <c r="P65" s="40">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P65" s="44">
+        <v>628</v>
+      </c>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="44"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="42" t="s">
-        <v>156</v>
+        <v>443</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>157</v>
@@ -4925,11 +5654,14 @@
       <c r="O66" s="40">
         <v>21.3</v>
       </c>
-      <c r="P66" s="40">
-        <v>13607</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P66" s="44">
+        <v>499</v>
+      </c>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="44"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="s">
         <v>158</v>
       </c>
@@ -4973,13 +5705,16 @@
       <c r="O67" s="40">
         <v>21.9</v>
       </c>
-      <c r="P67" s="40">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P67" s="44">
+        <v>361</v>
+      </c>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="44"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="B68" s="29" t="s">
         <v>161</v>
@@ -5021,11 +5756,14 @@
       <c r="O68" s="40">
         <v>27</v>
       </c>
-      <c r="P68" s="40">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P68" s="44">
+        <v>1079</v>
+      </c>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="44"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
         <v>164</v>
       </c>
@@ -5069,11 +5807,14 @@
       <c r="O69" s="40">
         <v>21.4</v>
       </c>
-      <c r="P69" s="40">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P69" s="44">
+        <v>341</v>
+      </c>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="44"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
         <v>166</v>
       </c>
@@ -5117,13 +5858,16 @@
       <c r="O70" s="40">
         <v>22.7</v>
       </c>
-      <c r="P70" s="40">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P70" s="44">
+        <v>811</v>
+      </c>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="44"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
-        <v>168</v>
+        <v>445</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>169</v>
@@ -5165,13 +5909,16 @@
       <c r="O71" s="40">
         <v>21.5</v>
       </c>
-      <c r="P71" s="40">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P71" s="44">
+        <v>1757</v>
+      </c>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="44"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
-        <v>172</v>
+        <v>446</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>173</v>
@@ -5213,13 +5960,16 @@
       <c r="O72" s="40">
         <v>22</v>
       </c>
-      <c r="P72" s="40">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P72" s="44">
+        <v>492</v>
+      </c>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="44"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>177</v>
@@ -5261,13 +6011,16 @@
       <c r="O73" s="40">
         <v>16.100000000000001</v>
       </c>
-      <c r="P73" s="40">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P73" s="44">
+        <v>275</v>
+      </c>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="44"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
-        <v>180</v>
+        <v>448</v>
       </c>
       <c r="B74" s="29" t="s">
         <v>181</v>
@@ -5309,13 +6062,16 @@
       <c r="O74" s="40">
         <v>21.1</v>
       </c>
-      <c r="P74" s="40">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P74" s="44">
+        <v>225</v>
+      </c>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="44"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="42" t="s">
-        <v>184</v>
+        <v>449</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>185</v>
@@ -5357,13 +6113,16 @@
       <c r="O75" s="40">
         <v>23.8</v>
       </c>
-      <c r="P75" s="40">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P75" s="44">
+        <v>1170</v>
+      </c>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="44"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
-        <v>188</v>
+        <v>450</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>189</v>
@@ -5405,13 +6164,16 @@
       <c r="O76" s="40">
         <v>25.8</v>
       </c>
-      <c r="P76" s="40">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P76" s="44">
+        <v>168</v>
+      </c>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="44"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="42" t="s">
-        <v>191</v>
+        <v>451</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>192</v>
@@ -5453,13 +6215,16 @@
       <c r="O77" s="40">
         <v>24.3</v>
       </c>
-      <c r="P77" s="40">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P77" s="44">
+        <v>622</v>
+      </c>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="44"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="42" t="s">
-        <v>195</v>
+        <v>452</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>130</v>
@@ -5501,11 +6266,14 @@
       <c r="O78" s="40">
         <v>24.9</v>
       </c>
-      <c r="P78" s="40">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P78" s="44">
+        <v>347</v>
+      </c>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="44"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
         <v>198</v>
       </c>
@@ -5549,11 +6317,14 @@
       <c r="O79" s="40">
         <v>24.8</v>
       </c>
-      <c r="P79" s="40">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P79" s="44">
+        <v>965</v>
+      </c>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="44"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
         <v>202</v>
       </c>
@@ -5597,11 +6368,14 @@
       <c r="O80" s="40">
         <v>23.4</v>
       </c>
-      <c r="P80" s="40">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P80" s="44">
+        <v>2159</v>
+      </c>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="44"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
         <v>206</v>
       </c>
@@ -5645,13 +6419,16 @@
       <c r="O81" s="40">
         <v>26.3</v>
       </c>
-      <c r="P81" s="40">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P81" s="44">
+        <v>417</v>
+      </c>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="44"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>210</v>
+        <v>453</v>
       </c>
       <c r="B82" s="29" t="s">
         <v>211</v>
@@ -5693,13 +6470,16 @@
       <c r="O82" s="40">
         <v>21.7</v>
       </c>
-      <c r="P82" s="40">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P82" s="44">
+        <v>221</v>
+      </c>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="44"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
-        <v>212</v>
+        <v>454</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>213</v>
@@ -5741,13 +6521,16 @@
       <c r="O83" s="40">
         <v>10.6</v>
       </c>
-      <c r="P83" s="40">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P83" s="44">
+        <v>104</v>
+      </c>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="44"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
-        <v>214</v>
+        <v>455</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>215</v>
@@ -5789,13 +6572,16 @@
       <c r="O84" s="40">
         <v>26.2</v>
       </c>
-      <c r="P84" s="40">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P84" s="44">
+        <v>109</v>
+      </c>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="44"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
-        <v>216</v>
+        <v>456</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>217</v>
@@ -5837,11 +6623,14 @@
       <c r="O85" s="40">
         <v>20.6</v>
       </c>
-      <c r="P85" s="40">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P85" s="44">
+        <v>281</v>
+      </c>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="44"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="42" t="s">
         <v>218</v>
       </c>
@@ -5885,13 +6674,16 @@
       <c r="O86" s="40">
         <v>23.9</v>
       </c>
-      <c r="P86" s="40">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P86" s="44">
+        <v>645</v>
+      </c>
+      <c r="Q86" s="42"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="44"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
-        <v>220</v>
+        <v>457</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>221</v>
@@ -5933,11 +6725,14 @@
       <c r="O87" s="40">
         <v>25.1</v>
       </c>
-      <c r="P87" s="40">
-        <v>10732</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P87" s="44">
+        <v>351</v>
+      </c>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="44"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>222</v>
       </c>
@@ -5981,11 +6776,14 @@
       <c r="O88" s="40">
         <v>23.2</v>
       </c>
-      <c r="P88" s="40">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P88" s="44">
+        <v>990</v>
+      </c>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="44"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
         <v>226</v>
       </c>
@@ -6029,11 +6827,14 @@
       <c r="O89" s="40">
         <v>20.7</v>
       </c>
-      <c r="P89" s="40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P89" s="44">
+        <v>298</v>
+      </c>
+      <c r="Q89" s="42"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="44"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="42" t="s">
         <v>230</v>
       </c>
@@ -6077,13 +6878,16 @@
       <c r="O90" s="40">
         <v>18.8</v>
       </c>
-      <c r="P90" s="40">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P90" s="44">
+        <v>286</v>
+      </c>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="44"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="42" t="s">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="B91" s="29" t="s">
         <v>233</v>
@@ -6125,13 +6929,16 @@
       <c r="O91" s="40">
         <v>22.7</v>
       </c>
-      <c r="P91" s="40">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P91" s="44">
+        <v>486</v>
+      </c>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="44"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>234</v>
+        <v>459</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>235</v>
@@ -6173,13 +6980,16 @@
       <c r="O92" s="40">
         <v>25.5</v>
       </c>
-      <c r="P92" s="40">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P92" s="44">
+        <v>515</v>
+      </c>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="44"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
-        <v>237</v>
+        <v>460</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>238</v>
@@ -6221,13 +7031,16 @@
       <c r="O93" s="40">
         <v>25.1</v>
       </c>
-      <c r="P93" s="40">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P93" s="44">
+        <v>376</v>
+      </c>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="44"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>241</v>
+        <v>461</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>242</v>
@@ -6269,11 +7082,14 @@
       <c r="O94" s="40">
         <v>22.8</v>
       </c>
-      <c r="P94" s="40">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P94" s="44">
+        <v>364</v>
+      </c>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="44"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
         <v>245</v>
       </c>
@@ -6317,13 +7133,16 @@
       <c r="O95" s="40">
         <v>22.9</v>
       </c>
-      <c r="P95" s="40">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P95" s="44">
+        <v>520</v>
+      </c>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="44"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="42" t="s">
-        <v>249</v>
+        <v>462</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>250</v>
@@ -6365,11 +7184,14 @@
       <c r="O96" s="40">
         <v>22.3</v>
       </c>
-      <c r="P96" s="40">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P96" s="44">
+        <v>301</v>
+      </c>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="44"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="42" t="s">
         <v>251</v>
       </c>
@@ -6413,13 +7235,16 @@
       <c r="O97" s="40">
         <v>25</v>
       </c>
-      <c r="P97" s="40">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P97" s="44">
+        <v>309</v>
+      </c>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="44"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="42" t="s">
-        <v>253</v>
+        <v>463</v>
       </c>
       <c r="B98" s="29" t="s">
         <v>254</v>
@@ -6461,13 +7286,16 @@
       <c r="O98" s="40">
         <v>21.6</v>
       </c>
-      <c r="P98" s="40">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P98" s="44">
+        <v>2525</v>
+      </c>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="14"/>
+      <c r="S98" s="44"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
-        <v>255</v>
+        <v>464</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>256</v>
@@ -6509,11 +7337,14 @@
       <c r="O99" s="40">
         <v>23.8</v>
       </c>
-      <c r="P99" s="40">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P99" s="44">
+        <v>630</v>
+      </c>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="44"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="42" t="s">
         <v>257</v>
       </c>
@@ -6557,13 +7388,16 @@
       <c r="O100" s="40">
         <v>25</v>
       </c>
-      <c r="P100" s="40">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P100" s="44">
+        <v>201</v>
+      </c>
+      <c r="Q100" s="42"/>
+      <c r="R100" s="14"/>
+      <c r="S100" s="44"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="42" t="s">
-        <v>259</v>
+        <v>465</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>260</v>
@@ -6605,11 +7439,14 @@
       <c r="O101" s="40">
         <v>18.5</v>
       </c>
-      <c r="P101" s="40">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P101" s="44">
+        <v>325</v>
+      </c>
+      <c r="Q101" s="42"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="44"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="42" t="s">
         <v>261</v>
       </c>
@@ -6653,13 +7490,16 @@
       <c r="O102" s="40">
         <v>27.4</v>
       </c>
-      <c r="P102" s="40">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P102" s="44">
+        <v>448</v>
+      </c>
+      <c r="Q102" s="42"/>
+      <c r="R102" s="14"/>
+      <c r="S102" s="44"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="42" t="s">
-        <v>263</v>
+        <v>466</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>264</v>
@@ -6701,13 +7541,16 @@
       <c r="O103" s="40">
         <v>22</v>
       </c>
-      <c r="P103" s="40">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P103" s="44">
+        <v>515</v>
+      </c>
+      <c r="Q103" s="42"/>
+      <c r="R103" s="14"/>
+      <c r="S103" s="44"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
-        <v>265</v>
+        <v>467</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>266</v>
@@ -6749,13 +7592,16 @@
       <c r="O104" s="40">
         <v>22.2</v>
       </c>
-      <c r="P104" s="40">
+      <c r="P104" s="44">
         <v>231</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104" s="42"/>
+      <c r="R104" s="14"/>
+      <c r="S104" s="44"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="42" t="s">
-        <v>267</v>
+        <v>468</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>268</v>
@@ -6797,13 +7643,16 @@
       <c r="O105" s="40">
         <v>26.6</v>
       </c>
-      <c r="P105" s="40">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P105" s="44">
+        <v>353</v>
+      </c>
+      <c r="Q105" s="42"/>
+      <c r="R105" s="14"/>
+      <c r="S105" s="44"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="42" t="s">
-        <v>271</v>
+        <v>469</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>272</v>
@@ -6845,11 +7694,14 @@
       <c r="O106" s="40">
         <v>24.9</v>
       </c>
-      <c r="P106" s="40">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P106" s="44">
+        <v>638</v>
+      </c>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="44"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="42" t="s">
         <v>276</v>
       </c>
@@ -6893,11 +7745,14 @@
       <c r="O107" s="40">
         <v>20.5</v>
       </c>
-      <c r="P107" s="40">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P107" s="44">
+        <v>317</v>
+      </c>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="14"/>
+      <c r="S107" s="44"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
         <v>278</v>
       </c>
@@ -6941,11 +7796,14 @@
       <c r="O108" s="40">
         <v>19.7</v>
       </c>
-      <c r="P108" s="40">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P108" s="44">
+        <v>123</v>
+      </c>
+      <c r="Q108" s="42"/>
+      <c r="R108" s="14"/>
+      <c r="S108" s="44"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="42" t="s">
         <v>282</v>
       </c>
@@ -6989,11 +7847,14 @@
       <c r="O109" s="40">
         <v>21.4</v>
       </c>
-      <c r="P109" s="40">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P109" s="44">
+        <v>1682</v>
+      </c>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="14"/>
+      <c r="S109" s="44"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="42" t="s">
         <v>286</v>
       </c>
@@ -7037,13 +7898,16 @@
       <c r="O110" s="40">
         <v>26.1</v>
       </c>
-      <c r="P110" s="40">
-        <v>14550</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P110" s="44">
+        <v>48</v>
+      </c>
+      <c r="Q110" s="42"/>
+      <c r="R110" s="14"/>
+      <c r="S110" s="44"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="42" t="s">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>291</v>
@@ -7085,11 +7949,14 @@
       <c r="O111" s="40">
         <v>21.2</v>
       </c>
-      <c r="P111" s="40">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P111" s="44">
+        <v>230</v>
+      </c>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="44"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="42" t="s">
         <v>292</v>
       </c>
@@ -7133,13 +8000,16 @@
       <c r="O112" s="40">
         <v>18.7</v>
       </c>
-      <c r="P112" s="40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P112" s="44">
+        <v>361</v>
+      </c>
+      <c r="Q112" s="42"/>
+      <c r="R112" s="14"/>
+      <c r="S112" s="44"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="42" t="s">
-        <v>296</v>
+        <v>471</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>297</v>
@@ -7181,11 +8051,14 @@
       <c r="O113" s="40">
         <v>26.6</v>
       </c>
-      <c r="P113" s="40">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P113" s="44">
+        <v>105</v>
+      </c>
+      <c r="Q113" s="42"/>
+      <c r="R113" s="14"/>
+      <c r="S113" s="44"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="42" t="s">
         <v>298</v>
       </c>
@@ -7229,11 +8102,14 @@
       <c r="O114" s="40">
         <v>25</v>
       </c>
-      <c r="P114" s="40">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P114" s="44">
+        <v>557</v>
+      </c>
+      <c r="Q114" s="42"/>
+      <c r="R114" s="14"/>
+      <c r="S114" s="44"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="42" t="s">
         <v>302</v>
       </c>
@@ -7277,13 +8153,16 @@
       <c r="O115" s="40">
         <v>21.4</v>
       </c>
-      <c r="P115" s="40">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P115" s="44">
+        <v>947</v>
+      </c>
+      <c r="Q115" s="42"/>
+      <c r="R115" s="14"/>
+      <c r="S115" s="44"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="42" t="s">
-        <v>306</v>
+        <v>472</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>307</v>
@@ -7325,13 +8204,16 @@
       <c r="O116" s="40">
         <v>16.3</v>
       </c>
-      <c r="P116" s="40">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P116" s="44">
+        <v>53</v>
+      </c>
+      <c r="Q116" s="42"/>
+      <c r="R116" s="14"/>
+      <c r="S116" s="44"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="42" t="s">
-        <v>308</v>
+        <v>473</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>309</v>
@@ -7373,11 +8255,14 @@
       <c r="O117" s="40">
         <v>30.7</v>
       </c>
-      <c r="P117" s="40">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P117" s="44">
+        <v>375</v>
+      </c>
+      <c r="Q117" s="42"/>
+      <c r="R117" s="14"/>
+      <c r="S117" s="44"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="42" t="s">
         <v>314</v>
       </c>
@@ -7421,13 +8306,16 @@
       <c r="O118" s="40">
         <v>22.6</v>
       </c>
-      <c r="P118" s="40">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P118" s="44">
+        <v>1763</v>
+      </c>
+      <c r="Q118" s="42"/>
+      <c r="R118" s="14"/>
+      <c r="S118" s="44"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="42" t="s">
-        <v>324</v>
+        <v>474</v>
       </c>
       <c r="B119" s="29" t="s">
         <v>325</v>
@@ -7469,11 +8357,14 @@
       <c r="O119" s="40">
         <v>25</v>
       </c>
-      <c r="P119" s="40">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P119" s="44">
+        <v>224</v>
+      </c>
+      <c r="Q119" s="42"/>
+      <c r="R119" s="14"/>
+      <c r="S119" s="44"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="42" t="s">
         <v>326</v>
       </c>
@@ -7517,13 +8408,16 @@
       <c r="O120" s="40">
         <v>21</v>
       </c>
-      <c r="P120" s="40">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P120" s="44">
+        <v>1194</v>
+      </c>
+      <c r="Q120" s="42"/>
+      <c r="R120" s="14"/>
+      <c r="S120" s="44"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="42" t="s">
-        <v>330</v>
+        <v>475</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>331</v>
@@ -7565,11 +8459,14 @@
       <c r="O121" s="40">
         <v>25.7</v>
       </c>
-      <c r="P121" s="40">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P121" s="44">
+        <v>307</v>
+      </c>
+      <c r="Q121" s="42"/>
+      <c r="R121" s="14"/>
+      <c r="S121" s="44"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="42" t="s">
         <v>332</v>
       </c>
@@ -7613,13 +8510,16 @@
       <c r="O122" s="40">
         <v>27.6</v>
       </c>
-      <c r="P122" s="40">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P122" s="44">
+        <v>908</v>
+      </c>
+      <c r="Q122" s="42"/>
+      <c r="R122" s="14"/>
+      <c r="S122" s="44"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="42" t="s">
-        <v>336</v>
+        <v>476</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>337</v>
@@ -7661,13 +8561,16 @@
       <c r="O123" s="40">
         <v>25</v>
       </c>
-      <c r="P123" s="40">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P123" s="44">
+        <v>278</v>
+      </c>
+      <c r="Q123" s="42"/>
+      <c r="R123" s="14"/>
+      <c r="S123" s="44"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="42" t="s">
-        <v>340</v>
+        <v>477</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>341</v>
@@ -7709,11 +8612,14 @@
       <c r="O124" s="40">
         <v>24.7</v>
       </c>
-      <c r="P124" s="40">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P124" s="44">
+        <v>288</v>
+      </c>
+      <c r="Q124" s="42"/>
+      <c r="R124" s="14"/>
+      <c r="S124" s="44"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="42" t="s">
         <v>342</v>
       </c>
@@ -7757,11 +8663,14 @@
       <c r="O125" s="40">
         <v>22.6</v>
       </c>
-      <c r="P125" s="40">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P125" s="44">
+        <v>542</v>
+      </c>
+      <c r="Q125" s="42"/>
+      <c r="R125" s="14"/>
+      <c r="S125" s="44"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="42" t="s">
         <v>344</v>
       </c>
@@ -7805,11 +8714,14 @@
       <c r="O126" s="40">
         <v>22.2</v>
       </c>
-      <c r="P126" s="40">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P126" s="44">
+        <v>844</v>
+      </c>
+      <c r="Q126" s="42"/>
+      <c r="R126" s="14"/>
+      <c r="S126" s="44"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="42" t="s">
         <v>346</v>
       </c>
@@ -7853,13 +8765,16 @@
       <c r="O127" s="40">
         <v>22.1</v>
       </c>
-      <c r="P127" s="40">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P127" s="44">
+        <v>2458</v>
+      </c>
+      <c r="Q127" s="42"/>
+      <c r="R127" s="14"/>
+      <c r="S127" s="44"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="42" t="s">
-        <v>349</v>
+        <v>478</v>
       </c>
       <c r="B128" s="29" t="s">
         <v>350</v>
@@ -7901,13 +8816,16 @@
       <c r="O128" s="40">
         <v>25.4</v>
       </c>
-      <c r="P128" s="40">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P128" s="44">
+        <v>651</v>
+      </c>
+      <c r="Q128" s="42"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="44"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="42" t="s">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>354</v>
@@ -7949,13 +8867,16 @@
       <c r="O129" s="40">
         <v>25.3</v>
       </c>
-      <c r="P129" s="40">
+      <c r="P129" s="44">
         <v>641</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129" s="42"/>
+      <c r="R129" s="14"/>
+      <c r="S129" s="44"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="42" t="s">
-        <v>357</v>
+        <v>480</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>358</v>
@@ -7997,11 +8918,14 @@
       <c r="O130" s="40">
         <v>24.6</v>
       </c>
-      <c r="P130" s="40">
+      <c r="P130" s="44">
         <v>287</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130" s="42"/>
+      <c r="R130" s="14"/>
+      <c r="S130" s="44"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="42" t="s">
         <v>361</v>
       </c>
@@ -8045,11 +8969,14 @@
       <c r="O131" s="40">
         <v>25.5</v>
       </c>
-      <c r="P131" s="40">
+      <c r="P131" s="44">
         <v>309</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131" s="42"/>
+      <c r="R131" s="14"/>
+      <c r="S131" s="44"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B132" s="29"/>
       <c r="C132" s="32"/>
       <c r="D132" s="29"/>
@@ -8059,7 +8986,7 @@
       <c r="O132" s="27"/>
       <c r="P132" s="27"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B133" s="29"/>
       <c r="C133" s="32"/>
       <c r="D133" s="29"/>
@@ -8069,7 +8996,7 @@
       <c r="O133" s="27"/>
       <c r="P133" s="27"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B134" s="29"/>
       <c r="C134" s="32"/>
       <c r="D134" s="29"/>
@@ -8079,7 +9006,7 @@
       <c r="O134" s="27"/>
       <c r="P134" s="27"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B135" s="29"/>
       <c r="C135" s="32"/>
       <c r="D135" s="29"/>
@@ -8089,7 +9016,7 @@
       <c r="O135" s="27"/>
       <c r="P135" s="27"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B136" s="29"/>
       <c r="C136" s="32"/>
       <c r="D136" s="29"/>
@@ -8099,7 +9026,7 @@
       <c r="O136" s="27"/>
       <c r="P136" s="27"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B137" s="29"/>
       <c r="C137" s="32"/>
       <c r="D137" s="29"/>
@@ -8109,7 +9036,7 @@
       <c r="O137" s="27"/>
       <c r="P137" s="27"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B138" s="29"/>
       <c r="C138" s="32"/>
       <c r="D138" s="29"/>
@@ -8119,7 +9046,7 @@
       <c r="O138" s="27"/>
       <c r="P138" s="27"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B139" s="29"/>
       <c r="C139" s="32"/>
       <c r="D139" s="29"/>
@@ -8129,7 +9056,7 @@
       <c r="O139" s="27"/>
       <c r="P139" s="27"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B140" s="29"/>
       <c r="C140" s="32"/>
       <c r="D140" s="29"/>
@@ -8139,7 +9066,7 @@
       <c r="O140" s="27"/>
       <c r="P140" s="27"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B141" s="29"/>
       <c r="C141" s="32"/>
       <c r="D141" s="29"/>
@@ -8149,7 +9076,7 @@
       <c r="O141" s="27"/>
       <c r="P141" s="27"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B142" s="29"/>
       <c r="C142" s="32"/>
       <c r="D142" s="29"/>
@@ -8158,7 +9085,7 @@
       <c r="O142" s="27"/>
       <c r="P142" s="27"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B143" s="29"/>
       <c r="C143" s="32"/>
       <c r="D143" s="29"/>
@@ -8167,7 +9094,7 @@
       <c r="O143" s="27"/>
       <c r="P143" s="27"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B144" s="29"/>
       <c r="C144" s="32"/>
       <c r="D144" s="29"/>
@@ -8455,8 +9382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B126"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection sqref="A1:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8466,1010 +9393,1010 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="44">
         <v>64573</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="44">
         <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="44">
         <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="44">
         <v>10135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="44">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="44">
         <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="44">
         <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="44">
         <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="44">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="44">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="44">
         <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="44">
         <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="44">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="44">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="44">
         <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="44">
         <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="44">
         <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="44">
         <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="44">
         <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="44">
         <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="44">
         <v>1170</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="44">
         <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="44">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="44">
         <v>990</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="44">
         <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="44">
         <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="44">
         <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="44">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="44">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="44">
         <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="44">
         <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="44">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="44">
         <v>1194</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="44">
         <v>15245</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="44">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="44">
         <v>1698</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="44">
         <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="44">
         <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="44">
         <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="44">
         <v>702</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="44">
         <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="44">
         <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="44">
         <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="44">
         <v>1872</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="44">
         <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="44">
         <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="44">
         <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="44">
         <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="44">
         <v>2159</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="44">
         <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="44">
         <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="44">
         <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="44">
         <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="44">
         <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="44">
         <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="44">
         <v>947</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="44">
         <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="44">
         <v>908</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="44">
         <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="44">
         <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="44">
         <v>13607</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="44">
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="44">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="44">
         <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="27">
+      <c r="B65" s="44">
         <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B66" s="44">
         <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B67" s="44">
         <v>676</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="44">
         <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="44">
         <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70" s="44">
         <v>1757</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B71" s="44">
         <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72" s="44">
         <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B73" s="27">
+      <c r="B73" s="44">
         <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B74" s="27">
+      <c r="B74" s="44">
         <v>520</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B75" s="27">
+      <c r="B75" s="44">
         <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="44">
         <v>448</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="44">
         <v>1682</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B78" s="27">
+      <c r="B78" s="44">
         <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B79" s="27">
+      <c r="B79" s="44">
         <v>1763</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B80" s="44">
         <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81" s="44">
         <v>2458</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="44">
         <v>10732</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84" s="44">
         <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="44">
         <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86" s="44">
         <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87" s="44">
         <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88" s="44">
         <v>786</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89" s="44">
         <v>888</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="44">
         <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="44">
         <v>684</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B92" s="44">
         <v>1317</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="27">
+      <c r="B93" s="44">
         <v>905</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94" s="44">
         <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="44">
         <v>811</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96" s="44">
         <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="44">
         <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="44">
         <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="44">
         <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B100" s="27">
+      <c r="B100" s="44">
         <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B101" s="27">
+      <c r="B101" s="44">
         <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="B102" s="27">
+      <c r="B102" s="44">
         <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B103" s="27">
+      <c r="B103" s="44">
         <v>844</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B104" s="27">
+      <c r="B104" s="44">
         <v>651</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B105" s="27">
+      <c r="B105" s="44">
         <v>14550</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106" s="44">
         <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107" s="44">
         <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="44">
         <v>393</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B109" s="27">
+      <c r="B109" s="44">
         <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110" s="44">
         <v>1045</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B111" s="44">
         <v>510</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="26" t="s">
+      <c r="A112" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B112" s="44">
         <v>950</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B113" s="27">
+      <c r="B113" s="44">
         <v>1876</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B114" s="44">
         <v>647</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="26" t="s">
+      <c r="A115" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B115" s="27">
+      <c r="B115" s="44">
         <v>628</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="26" t="s">
+      <c r="A116" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B116" s="44">
         <v>1079</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B117" s="27">
+      <c r="B117" s="44">
         <v>622</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="26" t="s">
+      <c r="A118" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B118" s="27">
+      <c r="B118" s="44">
         <v>965</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="26" t="s">
+      <c r="A119" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B119" s="27">
+      <c r="B119" s="44">
         <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B120" s="27">
+      <c r="B120" s="44">
         <v>2525</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="26" t="s">
+      <c r="A121" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B121" s="27">
+      <c r="B121" s="44">
         <v>630</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="26" t="s">
+      <c r="A122" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B122" s="27">
+      <c r="B122" s="44">
         <v>515</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B123" s="27">
+      <c r="B123" s="44">
         <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="B124" s="27">
+      <c r="B124" s="44">
         <v>641</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="26" t="s">
+      <c r="A125" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="B125" s="27">
+      <c r="B125" s="44">
         <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="26" t="s">
+      <c r="A126" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B126" s="44">
         <v>309</v>
       </c>
     </row>
@@ -9480,245 +10407,1312 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="25" width="10.7109375" customWidth="1"/>
+    <col min="2" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="25" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="H3" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="O3" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>523</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="U3" s="51" t="s">
+        <v>525</v>
+      </c>
+      <c r="V3" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="W3" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="X3" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y3" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z3" s="51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="52">
+        <v>83250</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="52">
+        <v>234</v>
+      </c>
+      <c r="E4" s="52">
+        <v>3798</v>
+      </c>
+      <c r="F4" s="58">
+        <v>60.2</v>
+      </c>
+      <c r="G4" s="59">
+        <v>127</v>
+      </c>
+      <c r="H4" s="59">
+        <v>13452</v>
+      </c>
+      <c r="I4" s="52">
+        <v>1325</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>490</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="L4" s="53">
+        <v>40</v>
+      </c>
+      <c r="M4" s="48">
+        <v>17</v>
+      </c>
+      <c r="N4" s="48">
+        <v>6582</v>
+      </c>
+      <c r="O4" s="48">
+        <v>143</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>5.7</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="S4" s="53">
+        <v>-12</v>
+      </c>
+      <c r="T4" s="48">
+        <v>4.3</v>
+      </c>
+      <c r="U4" s="48">
+        <v>0.11</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="W4" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="X4" s="48" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y4" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z4" s="54" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="52">
+        <v>95735</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="27">
+        <v>72</v>
+      </c>
+      <c r="E5" s="59">
+        <v>3429</v>
+      </c>
+      <c r="F5" s="52">
+        <v>55</v>
+      </c>
+      <c r="G5" s="52">
+        <v>200</v>
+      </c>
+      <c r="H5" s="56">
+        <v>12386</v>
+      </c>
+      <c r="I5" s="55">
+        <v>456</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="L5" s="53">
+        <v>27</v>
+      </c>
+      <c r="M5" s="48">
+        <v>2</v>
+      </c>
+      <c r="N5" s="53">
+        <v>5012</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>12</v>
+      </c>
+      <c r="R5" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="S5" s="48">
+        <v>-578</v>
+      </c>
+      <c r="T5" s="48">
+        <v>5.7</v>
+      </c>
+      <c r="U5" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="V5" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="W5" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="X5" s="48" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y5" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z5" s="54" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="52">
+        <v>23669</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="55">
+        <v>153</v>
+      </c>
+      <c r="E6" s="55">
+        <v>2457</v>
+      </c>
+      <c r="F6" s="52">
+        <v>86</v>
+      </c>
+      <c r="G6" s="59">
+        <v>158</v>
+      </c>
+      <c r="H6" s="55">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="55">
+        <v>807</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="L6" s="53">
+        <v>63</v>
+      </c>
+      <c r="M6" s="48">
         <v>4</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N6" s="48">
+        <v>600</v>
+      </c>
+      <c r="O6" s="48">
+        <v>87</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>9.6</v>
+      </c>
+      <c r="R6" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="S6" s="48">
+        <v>682</v>
+      </c>
+      <c r="T6" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="U6" s="48">
+        <v>2E-3</v>
+      </c>
+      <c r="V6" s="60" t="s">
+        <v>502</v>
+      </c>
+      <c r="W6" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="X6" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y6" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z6" s="54" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="52">
+        <v>1</v>
+      </c>
+      <c r="C7" s="52">
+        <v>3</v>
+      </c>
+      <c r="D7" s="52">
+        <v>2</v>
+      </c>
+      <c r="E7" s="52">
+        <v>2</v>
+      </c>
+      <c r="F7" s="52">
+        <v>1</v>
+      </c>
+      <c r="G7" s="52">
+        <v>3</v>
+      </c>
+      <c r="H7" s="52">
+        <v>2</v>
+      </c>
+      <c r="I7" s="52">
+        <v>3</v>
+      </c>
+      <c r="J7" s="52">
+        <v>1</v>
+      </c>
+      <c r="K7" s="52">
+        <v>3</v>
+      </c>
+      <c r="L7" s="53">
+        <v>1</v>
+      </c>
+      <c r="M7" s="52">
+        <v>2</v>
+      </c>
+      <c r="N7" s="52">
+        <v>1</v>
+      </c>
+      <c r="O7" s="52">
+        <v>2</v>
+      </c>
+      <c r="P7" s="52">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="52">
+        <v>3</v>
+      </c>
+      <c r="R7" s="52">
+        <v>2</v>
+      </c>
+      <c r="S7" s="52">
+        <v>2</v>
+      </c>
+      <c r="T7" s="52">
+        <v>1</v>
+      </c>
+      <c r="U7" s="52">
+        <v>1</v>
+      </c>
+      <c r="V7" s="48">
+        <v>2</v>
+      </c>
+      <c r="W7" s="48">
+        <v>1</v>
+      </c>
+      <c r="X7" s="48">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="48">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" t="s">
+        <v>542</v>
+      </c>
+      <c r="G11" t="s">
+        <v>539</v>
+      </c>
+      <c r="H11" t="s">
+        <v>543</v>
+      </c>
+      <c r="I11" t="s">
+        <v>544</v>
+      </c>
+      <c r="J11" t="s">
+        <v>554</v>
+      </c>
+      <c r="K11" t="s">
+        <v>550</v>
+      </c>
+      <c r="L11" t="s">
+        <v>548</v>
+      </c>
+      <c r="M11" t="s">
+        <v>555</v>
+      </c>
+      <c r="N11" t="s">
+        <v>556</v>
+      </c>
+      <c r="O11" t="s">
+        <v>560</v>
+      </c>
+      <c r="P11" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>568</v>
+      </c>
+      <c r="R11" t="s">
+        <v>549</v>
+      </c>
+      <c r="S11" t="s">
+        <v>564</v>
+      </c>
+      <c r="T11" t="s">
+        <v>574</v>
+      </c>
+      <c r="U11" t="s">
+        <v>575</v>
+      </c>
+      <c r="V11" t="s">
+        <v>570</v>
+      </c>
+      <c r="W11" t="s">
+        <v>576</v>
+      </c>
+      <c r="X11" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C12" s="38">
+        <v>2944</v>
+      </c>
+      <c r="D12">
+        <v>808</v>
+      </c>
+      <c r="E12">
+        <v>67543</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>243</v>
+      </c>
+      <c r="H12">
+        <v>16187</v>
+      </c>
+      <c r="I12" t="s">
+        <v>545</v>
+      </c>
+      <c r="J12">
+        <v>4543</v>
+      </c>
+      <c r="K12" t="s">
+        <v>553</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>557</v>
+      </c>
+      <c r="O12" t="s">
+        <v>563</v>
+      </c>
+      <c r="P12">
+        <v>18943</v>
+      </c>
+      <c r="Q12" s="48">
+        <v>5.7</v>
+      </c>
+      <c r="R12">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s">
+        <v>565</v>
+      </c>
+      <c r="T12">
+        <v>9657</v>
+      </c>
+      <c r="U12">
+        <v>2.8</v>
+      </c>
+      <c r="V12" t="s">
+        <v>573</v>
+      </c>
+      <c r="W12">
+        <v>0.3</v>
+      </c>
+      <c r="X12">
+        <v>1165</v>
+      </c>
+      <c r="Y12">
+        <v>1934</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="C13" s="38">
+        <v>3245</v>
+      </c>
+      <c r="D13" s="28">
+        <v>980</v>
+      </c>
+      <c r="E13" s="28">
+        <v>69180</v>
+      </c>
+      <c r="F13" s="63">
+        <v>12</v>
+      </c>
+      <c r="G13" s="44">
+        <v>68</v>
+      </c>
+      <c r="H13" s="63">
+        <v>31792</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="J13" s="63">
+        <v>3401</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="L13" s="28">
+        <v>2</v>
+      </c>
+      <c r="M13" s="63">
+        <v>2</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="P13" s="28">
+        <v>15234</v>
+      </c>
+      <c r="Q13" s="48">
+        <v>11.7</v>
+      </c>
+      <c r="R13" s="28">
+        <v>83</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="T13" s="63">
+        <v>12021</v>
+      </c>
+      <c r="U13" s="63">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="W13" s="63">
+        <v>1.4</v>
+      </c>
+      <c r="X13" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y13" s="63">
+        <v>1905</v>
+      </c>
+      <c r="Z13" s="28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14">
+        <v>4231</v>
+      </c>
+      <c r="D14">
+        <v>1290</v>
+      </c>
+      <c r="E14">
+        <v>73200</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>57</v>
+      </c>
+      <c r="H14">
+        <v>26482</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>547</v>
+      </c>
+      <c r="J14" s="63">
+        <v>5174</v>
+      </c>
+      <c r="K14" t="s">
+        <v>552</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>559</v>
+      </c>
+      <c r="O14" t="s">
+        <v>562</v>
+      </c>
+      <c r="P14">
+        <v>16326</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>14</v>
+      </c>
+      <c r="R14">
+        <v>17</v>
+      </c>
+      <c r="S14" s="63" t="s">
+        <v>567</v>
+      </c>
+      <c r="T14" s="63">
+        <v>11760</v>
+      </c>
+      <c r="U14" s="63">
+        <v>3.9</v>
+      </c>
+      <c r="V14" t="s">
+        <v>572</v>
+      </c>
+      <c r="W14">
+        <v>0.01</v>
+      </c>
+      <c r="X14">
+        <v>1345</v>
+      </c>
+      <c r="Y14">
+        <v>1919</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="52">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15" s="63">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q16" s="40"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="B28" s="34">
+        <v>2018</v>
+      </c>
+      <c r="C28" s="34">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="34">
+        <v>2018</v>
+      </c>
+      <c r="E28" s="34">
+        <v>2018</v>
+      </c>
+      <c r="F28" s="34">
+        <v>2018</v>
+      </c>
+      <c r="G28" s="34">
+        <v>2018</v>
+      </c>
+      <c r="H28" s="34">
+        <v>2018</v>
+      </c>
+      <c r="I28" s="34">
+        <v>2018</v>
+      </c>
+      <c r="J28" s="35">
+        <v>2017</v>
+      </c>
+      <c r="K28" s="35">
+        <v>2017</v>
+      </c>
+      <c r="L28" s="35">
+        <v>2017</v>
+      </c>
+      <c r="M28" s="35">
+        <v>2018</v>
+      </c>
+      <c r="N28" s="35">
+        <v>2018</v>
+      </c>
+      <c r="O28" s="35">
+        <v>2018</v>
+      </c>
+      <c r="P28" s="35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C29" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="K29" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="L29" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="M29" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N29" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="O29" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="P29" s="35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B30" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D30" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="F3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="N30" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O30" s="43" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B4">
+      <c r="P30" s="34"/>
+    </row>
+    <row r="31" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="33">
+        <v>1934379</v>
+      </c>
+      <c r="C31" s="38">
+        <v>75742</v>
+      </c>
+      <c r="D31" s="38">
+        <v>70559</v>
+      </c>
+      <c r="E31" s="38">
+        <v>92361</v>
+      </c>
+      <c r="F31" s="38">
+        <v>87462</v>
+      </c>
+      <c r="G31" s="38">
+        <v>127868</v>
+      </c>
+      <c r="H31" s="38">
+        <v>260988</v>
+      </c>
+      <c r="I31" s="39">
+        <v>4304116</v>
+      </c>
+      <c r="J31" s="37"/>
+      <c r="K31" s="44">
+        <v>20828</v>
+      </c>
+      <c r="L31" s="40">
+        <v>28757</v>
+      </c>
+      <c r="M31" s="40">
+        <v>15.8</v>
+      </c>
+      <c r="N31" s="40">
+        <v>61.7</v>
+      </c>
+      <c r="O31" s="40">
+        <v>22.5</v>
+      </c>
+      <c r="P31" s="40">
+        <v>64573</v>
+      </c>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="44"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="33">
         <v>83250</v>
       </c>
-      <c r="C4">
-        <v>1325</v>
-      </c>
-      <c r="D4">
-        <v>234</v>
-      </c>
-      <c r="E4">
-        <v>3798</v>
-      </c>
-      <c r="F4" s="40">
+      <c r="C32" s="38">
+        <v>3144</v>
+      </c>
+      <c r="D32" s="38">
+        <v>2822</v>
+      </c>
+      <c r="E32" s="38">
+        <v>3587</v>
+      </c>
+      <c r="F32" s="38">
+        <v>3429</v>
+      </c>
+      <c r="G32" s="38">
+        <v>5655</v>
+      </c>
+      <c r="H32" s="38">
+        <v>12717</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="44">
+        <v>807</v>
+      </c>
+      <c r="L32" s="40">
+        <v>1385</v>
+      </c>
+      <c r="M32" s="40">
+        <v>15</v>
+      </c>
+      <c r="N32" s="40">
         <v>60.2</v>
       </c>
-      <c r="G4" s="38">
-        <v>127</v>
-      </c>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5">
-        <v>95735</v>
-      </c>
-      <c r="C5" s="44">
-        <v>456</v>
-      </c>
-      <c r="D5" s="40">
-        <v>179</v>
-      </c>
-      <c r="E5" s="38">
-        <v>3429</v>
-      </c>
-      <c r="F5">
-        <v>55</v>
-      </c>
-      <c r="G5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B6">
-        <v>23669</v>
-      </c>
-      <c r="C6" s="44">
-        <v>807</v>
-      </c>
-      <c r="D6" s="44">
-        <v>153</v>
-      </c>
-      <c r="E6" s="44">
-        <v>2457</v>
-      </c>
-      <c r="F6">
-        <v>86</v>
-      </c>
-      <c r="G6" s="38">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-    </row>
-    <row r="17" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-    </row>
-    <row r="21" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="22" spans="8:28" x14ac:dyDescent="0.25">
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
+      <c r="O32" s="40">
+        <v>24.8</v>
+      </c>
+      <c r="P32" s="27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="33">
+        <v>69180</v>
+      </c>
+      <c r="C33" s="38">
+        <v>2944</v>
+      </c>
+      <c r="D33" s="38">
+        <v>2698</v>
+      </c>
+      <c r="E33" s="38">
+        <v>3565</v>
+      </c>
+      <c r="F33" s="38">
+        <v>3399</v>
+      </c>
+      <c r="G33" s="38">
+        <v>4504</v>
+      </c>
+      <c r="H33" s="38">
+        <v>10090</v>
+      </c>
+      <c r="I33" s="38"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="44">
+        <v>808</v>
+      </c>
+      <c r="L33" s="40">
+        <v>1023</v>
+      </c>
+      <c r="M33" s="40">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N33" s="40">
+        <v>59.3</v>
+      </c>
+      <c r="O33" s="40">
+        <v>23.6</v>
+      </c>
+      <c r="P33" s="44">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="47">
+        <f>(D33+F33+H33)-(C33+E33+G33)</f>
+        <v>5174</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="K35">
+        <f>K33/K31*100</f>
+        <v>3.879393124639908</v>
+      </c>
+      <c r="M35">
+        <f>17/100*B33</f>
+        <v>11760.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f>(C33+D33)/B31*100</f>
+        <v>0.29166983305753424</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="B9:Z9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V10:Z10"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="B2:F2"/>
@@ -9727,6 +11721,7 @@
     <mergeCell ref="Q2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
